--- a/examples/Example 2 - 3D/data/example_data.xlsx
+++ b/examples/Example 2 - 3D/data/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105295\Projects\loopflopy_examples\transect_example\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105295\Projects\loopflopy\examples\Example 2 - 3D\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0603A487-15E5-4F94-8CBC-F440EBCEDB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9EB6EE-6627-497D-A04F-6652F103B1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18430" windowHeight="11020" tabRatio="1000" activeTab="2" xr2:uid="{BEB68924-1CF9-4A8C-BED3-3B7C03CCF6FB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="1000" xr2:uid="{BEB68924-1CF9-4A8C-BED3-3B7C03CCF6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="strat" sheetId="22" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>iconvert</t>
   </si>
   <si>
-    <t>zobs</t>
-  </si>
-  <si>
     <t>OBS2_CP</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>Interpretation to make Kcok pinchout</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9ADDBC-9493-4D02-BFAF-AC7BE54A76EE}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -693,33 +693,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>-1</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>6</v>
@@ -870,27 +870,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
@@ -1005,12 +1005,12 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="topRight" activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="2" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="12">
         <v>364415.7</v>
@@ -1067,10 +1067,10 @@
         <v>6534636</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="22">
         <v>27</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="12">
         <v>379899.5</v>
@@ -1099,10 +1099,10 @@
         <v>6531566</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="22">
         <v>46</v>
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="12">
         <v>300</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="4" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="16">
         <v>379899.5</v>
@@ -1131,30 +1131,30 @@
         <v>6531566</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="23">
         <v>46</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="16">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12">
         <v>355120</v>
@@ -1163,10 +1163,10 @@
         <v>6540562</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="22">
         <v>31</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12">
         <v>385447</v>
@@ -1195,10 +1195,10 @@
         <v>6537497</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="22">
         <v>28</v>
@@ -1207,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" s="12">
         <v>298</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12">
         <v>385447</v>
@@ -1227,25 +1227,25 @@
         <v>6537497</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="23">
         <v>28</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="16">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1276,12 +1276,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>364415.7</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5">
         <v>380000</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>381250</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <v>367845</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5">
         <v>375001</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5">
         <v>372541</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5">
         <v>367502</v>
@@ -1418,14 +1418,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>380000</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>365700</v>
